--- a/추가피처데이터/투자자별매매동향(수급)/373220.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/373220.xlsx
@@ -1583,43 +1583,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1851,94 +1851,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1682</v>
+        <v>964273</v>
       </c>
       <c r="C6" s="7">
-        <v>1429</v>
+        <v>812366</v>
       </c>
       <c r="D6" s="9">
-        <v>252</v>
+        <v>151907</v>
       </c>
       <c r="E6" s="11">
-        <v>1685</v>
+        <v>952768</v>
       </c>
       <c r="F6" s="13">
-        <v>1960</v>
+        <v>1121026</v>
       </c>
       <c r="G6" s="15">
-        <v>-276</v>
+        <v>-168258</v>
       </c>
       <c r="H6" s="17">
-        <v>989</v>
+        <v>562503</v>
       </c>
       <c r="I6" s="19">
-        <v>972</v>
+        <v>549746</v>
       </c>
       <c r="J6" s="21">
-        <v>17</v>
+        <v>12757</v>
       </c>
       <c r="K6" s="23">
-        <v>279</v>
+        <v>157628</v>
       </c>
       <c r="L6" s="25">
-        <v>313</v>
+        <v>177845</v>
       </c>
       <c r="M6" s="27">
-        <v>-34</v>
+        <v>-20217</v>
       </c>
       <c r="N6" s="29">
-        <v>54</v>
+        <v>30371</v>
       </c>
       <c r="O6" s="31">
-        <v>48</v>
+        <v>26959</v>
       </c>
       <c r="P6" s="33">
-        <v>6</v>
+        <v>3412</v>
       </c>
       <c r="Q6" s="35">
-        <v>126</v>
+        <v>72308</v>
       </c>
       <c r="R6" s="37">
-        <v>94</v>
+        <v>53343</v>
       </c>
       <c r="S6" s="39">
-        <v>31</v>
+        <v>18966</v>
       </c>
       <c r="T6" s="41">
-        <v>1</v>
+        <v>639</v>
       </c>
       <c r="U6" s="43">
-        <v>1</v>
+        <v>812</v>
       </c>
       <c r="V6" s="45">
-        <v>0</v>
+        <v>-173</v>
       </c>
       <c r="W6" s="47">
-        <v>2</v>
+        <v>878</v>
       </c>
       <c r="X6" s="49">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="Y6" s="51">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="Z6" s="53">
-        <v>428</v>
+        <v>243550</v>
       </c>
       <c r="AA6" s="55">
-        <v>412</v>
+        <v>232886</v>
       </c>
       <c r="AB6" s="57">
-        <v>16</v>
+        <v>10664</v>
       </c>
       <c r="AC6" s="59">
-        <v>100</v>
+        <v>57128</v>
       </c>
       <c r="AD6" s="61">
-        <v>102</v>
+        <v>57503</v>
       </c>
       <c r="AE6" s="63">
-        <v>-2</v>
+        <v>-375</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1950,16 +1950,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>27</v>
+        <v>15574</v>
       </c>
       <c r="AJ6" s="73">
-        <v>21</v>
+        <v>11980</v>
       </c>
       <c r="AK6" s="75">
-        <v>7</v>
+        <v>3594</v>
       </c>
       <c r="AL6" s="77">
-        <v>4383</v>
+        <v>2495118</v>
       </c>
     </row>
     <row r="7">
@@ -1967,94 +1967,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2440</v>
+        <v>1430760</v>
       </c>
       <c r="C7" s="7">
-        <v>2216</v>
+        <v>1295992</v>
       </c>
       <c r="D7" s="9">
-        <v>224</v>
+        <v>134768</v>
       </c>
       <c r="E7" s="11">
-        <v>3519</v>
+        <v>2062437</v>
       </c>
       <c r="F7" s="13">
-        <v>3435</v>
+        <v>2017113</v>
       </c>
       <c r="G7" s="15">
-        <v>84</v>
+        <v>45324</v>
       </c>
       <c r="H7" s="17">
-        <v>1237</v>
+        <v>723507</v>
       </c>
       <c r="I7" s="19">
-        <v>1487</v>
+        <v>869079</v>
       </c>
       <c r="J7" s="21">
-        <v>-250</v>
+        <v>-145572</v>
       </c>
       <c r="K7" s="23">
-        <v>379</v>
+        <v>222352</v>
       </c>
       <c r="L7" s="25">
-        <v>585</v>
+        <v>344425</v>
       </c>
       <c r="M7" s="27">
-        <v>-206</v>
+        <v>-122073</v>
       </c>
       <c r="N7" s="29">
-        <v>78</v>
+        <v>45556</v>
       </c>
       <c r="O7" s="31">
-        <v>64</v>
+        <v>37205</v>
       </c>
       <c r="P7" s="33">
-        <v>14</v>
+        <v>8351</v>
       </c>
       <c r="Q7" s="35">
-        <v>181</v>
+        <v>105767</v>
       </c>
       <c r="R7" s="37">
-        <v>165</v>
+        <v>95255</v>
       </c>
       <c r="S7" s="39">
-        <v>16</v>
+        <v>10513</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>716</v>
       </c>
       <c r="U7" s="43">
-        <v>6</v>
+        <v>3391</v>
       </c>
       <c r="V7" s="45">
-        <v>-5</v>
+        <v>-2675</v>
       </c>
       <c r="W7" s="47">
-        <v>4</v>
+        <v>2330</v>
       </c>
       <c r="X7" s="49">
-        <v>5</v>
+        <v>3085</v>
       </c>
       <c r="Y7" s="51">
-        <v>-1</v>
+        <v>-756</v>
       </c>
       <c r="Z7" s="53">
-        <v>523</v>
+        <v>305653</v>
       </c>
       <c r="AA7" s="55">
-        <v>449</v>
+        <v>261583</v>
       </c>
       <c r="AB7" s="57">
-        <v>75</v>
+        <v>44069</v>
       </c>
       <c r="AC7" s="59">
-        <v>70</v>
+        <v>41132</v>
       </c>
       <c r="AD7" s="61">
-        <v>213</v>
+        <v>124134</v>
       </c>
       <c r="AE7" s="63">
-        <v>-143</v>
+        <v>-83002</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2066,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>71</v>
+        <v>41755</v>
       </c>
       <c r="AJ7" s="73">
-        <v>129</v>
+        <v>76275</v>
       </c>
       <c r="AK7" s="75">
-        <v>-58</v>
+        <v>-34520</v>
       </c>
       <c r="AL7" s="77">
-        <v>7267</v>
+        <v>4258459</v>
       </c>
     </row>
     <row r="8">
@@ -2083,94 +2083,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>2450</v>
+        <v>1377321</v>
       </c>
       <c r="C8" s="7">
-        <v>2326</v>
+        <v>1309218</v>
       </c>
       <c r="D8" s="9">
-        <v>124</v>
+        <v>68102</v>
       </c>
       <c r="E8" s="11">
-        <v>3954</v>
+        <v>2221842</v>
       </c>
       <c r="F8" s="13">
-        <v>4559</v>
+        <v>2561805</v>
       </c>
       <c r="G8" s="15">
-        <v>-605</v>
+        <v>-339964</v>
       </c>
       <c r="H8" s="17">
-        <v>2274</v>
+        <v>1276441</v>
       </c>
       <c r="I8" s="19">
-        <v>1793</v>
+        <v>1004369</v>
       </c>
       <c r="J8" s="21">
-        <v>482</v>
+        <v>272072</v>
       </c>
       <c r="K8" s="23">
-        <v>570</v>
+        <v>319270</v>
       </c>
       <c r="L8" s="25">
-        <v>813</v>
+        <v>455021</v>
       </c>
       <c r="M8" s="27">
-        <v>-243</v>
+        <v>-135752</v>
       </c>
       <c r="N8" s="29">
-        <v>99</v>
+        <v>55850</v>
       </c>
       <c r="O8" s="31">
-        <v>54</v>
+        <v>30732</v>
       </c>
       <c r="P8" s="33">
-        <v>44</v>
+        <v>25119</v>
       </c>
       <c r="Q8" s="35">
-        <v>276</v>
+        <v>155197</v>
       </c>
       <c r="R8" s="37">
-        <v>98</v>
+        <v>54977</v>
       </c>
       <c r="S8" s="39">
-        <v>178</v>
+        <v>100219</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="U8" s="43">
-        <v>3</v>
+        <v>1437</v>
       </c>
       <c r="V8" s="45">
-        <v>-2</v>
+        <v>-958</v>
       </c>
       <c r="W8" s="47">
-        <v>8</v>
+        <v>4345</v>
       </c>
       <c r="X8" s="49">
-        <v>5</v>
+        <v>2742</v>
       </c>
       <c r="Y8" s="51">
-        <v>3</v>
+        <v>1603</v>
       </c>
       <c r="Z8" s="53">
-        <v>1022</v>
+        <v>572758</v>
       </c>
       <c r="AA8" s="55">
-        <v>570</v>
+        <v>318567</v>
       </c>
       <c r="AB8" s="57">
-        <v>452</v>
+        <v>254191</v>
       </c>
       <c r="AC8" s="59">
-        <v>299</v>
+        <v>168542</v>
       </c>
       <c r="AD8" s="61">
-        <v>250</v>
+        <v>140893</v>
       </c>
       <c r="AE8" s="63">
-        <v>49</v>
+        <v>27649</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>61</v>
+        <v>34241</v>
       </c>
       <c r="AJ8" s="73">
-        <v>61</v>
+        <v>34451</v>
       </c>
       <c r="AK8" s="75">
-        <v>-1</v>
+        <v>-210</v>
       </c>
       <c r="AL8" s="77">
-        <v>8739</v>
+        <v>4909845</v>
       </c>
     </row>
     <row r="9">
@@ -2199,94 +2199,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>1977</v>
+        <v>1046355</v>
       </c>
       <c r="C9" s="7">
-        <v>1940</v>
+        <v>1020246</v>
       </c>
       <c r="D9" s="9">
-        <v>37</v>
+        <v>26109</v>
       </c>
       <c r="E9" s="11">
-        <v>2889</v>
+        <v>1521272</v>
       </c>
       <c r="F9" s="13">
-        <v>2981</v>
+        <v>1579066</v>
       </c>
       <c r="G9" s="15">
-        <v>-92</v>
+        <v>-57794</v>
       </c>
       <c r="H9" s="17">
-        <v>1526</v>
+        <v>808671</v>
       </c>
       <c r="I9" s="19">
-        <v>1511</v>
+        <v>798090</v>
       </c>
       <c r="J9" s="21">
-        <v>15</v>
+        <v>10581</v>
       </c>
       <c r="K9" s="23">
-        <v>402</v>
+        <v>213023</v>
       </c>
       <c r="L9" s="25">
-        <v>689</v>
+        <v>365354</v>
       </c>
       <c r="M9" s="27">
-        <v>-287</v>
+        <v>-152331</v>
       </c>
       <c r="N9" s="29">
-        <v>97</v>
+        <v>51529</v>
       </c>
       <c r="O9" s="31">
-        <v>62</v>
+        <v>32326</v>
       </c>
       <c r="P9" s="33">
-        <v>36</v>
+        <v>19203</v>
       </c>
       <c r="Q9" s="35">
-        <v>175</v>
+        <v>92585</v>
       </c>
       <c r="R9" s="37">
-        <v>123</v>
+        <v>64585</v>
       </c>
       <c r="S9" s="39">
-        <v>51</v>
+        <v>28000</v>
       </c>
       <c r="T9" s="41">
-        <v>5</v>
+        <v>2570</v>
       </c>
       <c r="U9" s="43">
-        <v>3</v>
+        <v>1651</v>
       </c>
       <c r="V9" s="45">
-        <v>2</v>
+        <v>918</v>
       </c>
       <c r="W9" s="47">
-        <v>4</v>
+        <v>1841</v>
       </c>
       <c r="X9" s="49">
-        <v>3</v>
+        <v>1781</v>
       </c>
       <c r="Y9" s="51">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Z9" s="53">
-        <v>696</v>
+        <v>368314</v>
       </c>
       <c r="AA9" s="55">
-        <v>510</v>
+        <v>268647</v>
       </c>
       <c r="AB9" s="57">
-        <v>186</v>
+        <v>99667</v>
       </c>
       <c r="AC9" s="59">
-        <v>147</v>
+        <v>78809</v>
       </c>
       <c r="AD9" s="61">
-        <v>121</v>
+        <v>63746</v>
       </c>
       <c r="AE9" s="63">
-        <v>26</v>
+        <v>15063</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>72</v>
+        <v>37839</v>
       </c>
       <c r="AJ9" s="73">
-        <v>32</v>
+        <v>16736</v>
       </c>
       <c r="AK9" s="75">
-        <v>40</v>
+        <v>21103</v>
       </c>
       <c r="AL9" s="77">
-        <v>6463</v>
+        <v>3414138</v>
       </c>
     </row>
     <row r="10">
@@ -2315,94 +2315,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>2343</v>
+        <v>1124733</v>
       </c>
       <c r="C10" s="7">
-        <v>2114</v>
+        <v>1011265</v>
       </c>
       <c r="D10" s="9">
-        <v>229</v>
+        <v>113468</v>
       </c>
       <c r="E10" s="11">
-        <v>3363</v>
+        <v>1612555</v>
       </c>
       <c r="F10" s="13">
-        <v>3879</v>
+        <v>1876603</v>
       </c>
       <c r="G10" s="15">
-        <v>-516</v>
+        <v>-264048</v>
       </c>
       <c r="H10" s="17">
-        <v>2508</v>
+        <v>1205966</v>
       </c>
       <c r="I10" s="19">
-        <v>2238</v>
+        <v>1063592</v>
       </c>
       <c r="J10" s="21">
-        <v>270</v>
+        <v>142374</v>
       </c>
       <c r="K10" s="23">
-        <v>680</v>
+        <v>326840</v>
       </c>
       <c r="L10" s="25">
-        <v>1073</v>
+        <v>517859</v>
       </c>
       <c r="M10" s="27">
-        <v>-393</v>
+        <v>-191019</v>
       </c>
       <c r="N10" s="29">
-        <v>154</v>
+        <v>73686</v>
       </c>
       <c r="O10" s="31">
-        <v>68</v>
+        <v>31712</v>
       </c>
       <c r="P10" s="33">
-        <v>85</v>
+        <v>41975</v>
       </c>
       <c r="Q10" s="35">
-        <v>355</v>
+        <v>169555</v>
       </c>
       <c r="R10" s="37">
-        <v>199</v>
+        <v>92223</v>
       </c>
       <c r="S10" s="39">
-        <v>156</v>
+        <v>77332</v>
       </c>
       <c r="T10" s="41">
-        <v>7</v>
+        <v>3468</v>
       </c>
       <c r="U10" s="43">
-        <v>4</v>
+        <v>2005</v>
       </c>
       <c r="V10" s="45">
-        <v>3</v>
+        <v>1463</v>
       </c>
       <c r="W10" s="47">
-        <v>6</v>
+        <v>2770</v>
       </c>
       <c r="X10" s="49">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="Y10" s="51">
-        <v>5</v>
+        <v>2347</v>
       </c>
       <c r="Z10" s="53">
-        <v>975</v>
+        <v>469664</v>
       </c>
       <c r="AA10" s="55">
-        <v>655</v>
+        <v>308081</v>
       </c>
       <c r="AB10" s="57">
-        <v>320</v>
+        <v>161583</v>
       </c>
       <c r="AC10" s="59">
-        <v>331</v>
+        <v>159983</v>
       </c>
       <c r="AD10" s="61">
-        <v>237</v>
+        <v>111290</v>
       </c>
       <c r="AE10" s="63">
-        <v>93</v>
+        <v>48693</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2414,16 +2414,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>55</v>
+        <v>26595</v>
       </c>
       <c r="AJ10" s="73">
-        <v>38</v>
+        <v>18389</v>
       </c>
       <c r="AK10" s="75">
-        <v>17</v>
+        <v>8206</v>
       </c>
       <c r="AL10" s="77">
-        <v>8269</v>
+        <v>3969849</v>
       </c>
     </row>
     <row r="11">
@@ -2431,94 +2431,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2564</v>
+        <v>1318249</v>
       </c>
       <c r="C11" s="7">
-        <v>2676</v>
+        <v>1366679</v>
       </c>
       <c r="D11" s="9">
-        <v>-112</v>
+        <v>-48429</v>
       </c>
       <c r="E11" s="11">
-        <v>3010</v>
+        <v>1500376</v>
       </c>
       <c r="F11" s="13">
-        <v>2266</v>
+        <v>1134007</v>
       </c>
       <c r="G11" s="15">
-        <v>744</v>
+        <v>366369</v>
       </c>
       <c r="H11" s="17">
-        <v>1717</v>
+        <v>863589</v>
       </c>
       <c r="I11" s="19">
-        <v>2416</v>
+        <v>1216471</v>
       </c>
       <c r="J11" s="21">
-        <v>-699</v>
+        <v>-352882</v>
       </c>
       <c r="K11" s="23">
-        <v>532</v>
+        <v>266124</v>
       </c>
       <c r="L11" s="25">
-        <v>501</v>
+        <v>252223</v>
       </c>
       <c r="M11" s="27">
-        <v>31</v>
+        <v>13900</v>
       </c>
       <c r="N11" s="29">
-        <v>104</v>
+        <v>53394</v>
       </c>
       <c r="O11" s="31">
-        <v>147</v>
+        <v>74806</v>
       </c>
       <c r="P11" s="33">
-        <v>-43</v>
+        <v>-21412</v>
       </c>
       <c r="Q11" s="35">
-        <v>389</v>
+        <v>200713</v>
       </c>
       <c r="R11" s="37">
-        <v>339</v>
+        <v>174831</v>
       </c>
       <c r="S11" s="39">
-        <v>50</v>
+        <v>25882</v>
       </c>
       <c r="T11" s="41">
-        <v>15</v>
+        <v>7123</v>
       </c>
       <c r="U11" s="43">
-        <v>11</v>
+        <v>5392</v>
       </c>
       <c r="V11" s="45">
-        <v>4</v>
+        <v>1731</v>
       </c>
       <c r="W11" s="47">
-        <v>2</v>
+        <v>1030</v>
       </c>
       <c r="X11" s="49">
-        <v>3</v>
+        <v>1662</v>
       </c>
       <c r="Y11" s="51">
-        <v>-1</v>
+        <v>-632</v>
       </c>
       <c r="Z11" s="53">
-        <v>419</v>
+        <v>209716</v>
       </c>
       <c r="AA11" s="55">
-        <v>1182</v>
+        <v>590301</v>
       </c>
       <c r="AB11" s="57">
-        <v>-762</v>
+        <v>-380585</v>
       </c>
       <c r="AC11" s="59">
-        <v>256</v>
+        <v>125490</v>
       </c>
       <c r="AD11" s="61">
-        <v>233</v>
+        <v>117257</v>
       </c>
       <c r="AE11" s="63">
-        <v>22</v>
+        <v>8233</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>92</v>
+        <v>47678</v>
       </c>
       <c r="AJ11" s="73">
-        <v>25</v>
+        <v>12736</v>
       </c>
       <c r="AK11" s="75">
-        <v>67</v>
+        <v>34942</v>
       </c>
       <c r="AL11" s="77">
-        <v>7383</v>
+        <v>3729893</v>
       </c>
     </row>
     <row r="12">
@@ -2547,94 +2547,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>4494</v>
+        <v>2622464</v>
       </c>
       <c r="C12" s="7">
-        <v>3071</v>
+        <v>1796501</v>
       </c>
       <c r="D12" s="9">
-        <v>1423</v>
+        <v>825962</v>
       </c>
       <c r="E12" s="11">
-        <v>2953</v>
+        <v>1726354</v>
       </c>
       <c r="F12" s="13">
-        <v>3418</v>
+        <v>1994851</v>
       </c>
       <c r="G12" s="15">
-        <v>-465</v>
+        <v>-268497</v>
       </c>
       <c r="H12" s="17">
-        <v>1197</v>
+        <v>699074</v>
       </c>
       <c r="I12" s="19">
-        <v>2095</v>
+        <v>1220182</v>
       </c>
       <c r="J12" s="21">
-        <v>-898</v>
+        <v>-521108</v>
       </c>
       <c r="K12" s="23">
-        <v>410</v>
+        <v>240468</v>
       </c>
       <c r="L12" s="25">
-        <v>525</v>
+        <v>307215</v>
       </c>
       <c r="M12" s="27">
-        <v>-115</v>
+        <v>-66748</v>
       </c>
       <c r="N12" s="29">
-        <v>61</v>
+        <v>35851</v>
       </c>
       <c r="O12" s="31">
-        <v>114</v>
+        <v>66277</v>
       </c>
       <c r="P12" s="33">
-        <v>-53</v>
+        <v>-30426</v>
       </c>
       <c r="Q12" s="35">
-        <v>125</v>
+        <v>73240</v>
       </c>
       <c r="R12" s="37">
-        <v>244</v>
+        <v>142193</v>
       </c>
       <c r="S12" s="39">
-        <v>-118</v>
+        <v>-68953</v>
       </c>
       <c r="T12" s="41">
-        <v>6</v>
+        <v>3816</v>
       </c>
       <c r="U12" s="43">
-        <v>10</v>
+        <v>5783</v>
       </c>
       <c r="V12" s="45">
-        <v>-3</v>
+        <v>-1967</v>
       </c>
       <c r="W12" s="47">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="X12" s="49">
-        <v>3</v>
+        <v>1730</v>
       </c>
       <c r="Y12" s="51">
-        <v>-2</v>
+        <v>-1416</v>
       </c>
       <c r="Z12" s="53">
-        <v>467</v>
+        <v>271690</v>
       </c>
       <c r="AA12" s="55">
-        <v>720</v>
+        <v>418888</v>
       </c>
       <c r="AB12" s="57">
-        <v>-253</v>
+        <v>-147197</v>
       </c>
       <c r="AC12" s="59">
-        <v>126</v>
+        <v>73696</v>
       </c>
       <c r="AD12" s="61">
-        <v>479</v>
+        <v>278097</v>
       </c>
       <c r="AE12" s="63">
-        <v>-353</v>
+        <v>-204401</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>24</v>
+        <v>13743</v>
       </c>
       <c r="AJ12" s="73">
-        <v>84</v>
+        <v>50100</v>
       </c>
       <c r="AK12" s="75">
-        <v>-60</v>
+        <v>-36357</v>
       </c>
       <c r="AL12" s="77">
-        <v>8667</v>
+        <v>5061635</v>
       </c>
     </row>
     <row r="13">
@@ -2663,94 +2663,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>3063</v>
+        <v>1533941</v>
       </c>
       <c r="C13" s="7">
-        <v>2188</v>
+        <v>1094594</v>
       </c>
       <c r="D13" s="9">
-        <v>874</v>
+        <v>439347</v>
       </c>
       <c r="E13" s="11">
-        <v>2036</v>
+        <v>1009607</v>
       </c>
       <c r="F13" s="13">
-        <v>3152</v>
+        <v>1570040</v>
       </c>
       <c r="G13" s="15">
-        <v>-1115</v>
+        <v>-560432</v>
       </c>
       <c r="H13" s="17">
-        <v>1828</v>
+        <v>902937</v>
       </c>
       <c r="I13" s="19">
-        <v>1601</v>
+        <v>788089</v>
       </c>
       <c r="J13" s="21">
-        <v>228</v>
+        <v>114848</v>
       </c>
       <c r="K13" s="23">
-        <v>438</v>
+        <v>215646</v>
       </c>
       <c r="L13" s="25">
-        <v>436</v>
+        <v>214519</v>
       </c>
       <c r="M13" s="27">
-        <v>2</v>
+        <v>1128</v>
       </c>
       <c r="N13" s="29">
-        <v>69</v>
+        <v>34345</v>
       </c>
       <c r="O13" s="31">
-        <v>51</v>
+        <v>24758</v>
       </c>
       <c r="P13" s="33">
-        <v>18</v>
+        <v>9587</v>
       </c>
       <c r="Q13" s="35">
-        <v>162</v>
+        <v>80129</v>
       </c>
       <c r="R13" s="37">
-        <v>174</v>
+        <v>83793</v>
       </c>
       <c r="S13" s="39">
-        <v>-12</v>
+        <v>-3663</v>
       </c>
       <c r="T13" s="41">
-        <v>4</v>
+        <v>2023</v>
       </c>
       <c r="U13" s="43">
-        <v>7</v>
+        <v>3580</v>
       </c>
       <c r="V13" s="45">
-        <v>-3</v>
+        <v>-1557</v>
       </c>
       <c r="W13" s="47">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="X13" s="49">
-        <v>7</v>
+        <v>3528</v>
       </c>
       <c r="Y13" s="51">
-        <v>-6</v>
+        <v>-3248</v>
       </c>
       <c r="Z13" s="53">
-        <v>907</v>
+        <v>446357</v>
       </c>
       <c r="AA13" s="55">
-        <v>636</v>
+        <v>312876</v>
       </c>
       <c r="AB13" s="57">
-        <v>271</v>
+        <v>133481</v>
       </c>
       <c r="AC13" s="59">
-        <v>248</v>
+        <v>124156</v>
       </c>
       <c r="AD13" s="61">
-        <v>291</v>
+        <v>145037</v>
       </c>
       <c r="AE13" s="63">
-        <v>-42</v>
+        <v>-20880</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2762,16 +2762,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>65</v>
+        <v>32142</v>
       </c>
       <c r="AJ13" s="73">
-        <v>52</v>
+        <v>25905</v>
       </c>
       <c r="AK13" s="75">
-        <v>13</v>
+        <v>6237</v>
       </c>
       <c r="AL13" s="77">
-        <v>6993</v>
+        <v>3478628</v>
       </c>
     </row>
     <row r="14">
@@ -2779,94 +2779,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>3106</v>
+        <v>1496058</v>
       </c>
       <c r="C14" s="7">
-        <v>2742</v>
+        <v>1313183</v>
       </c>
       <c r="D14" s="9">
-        <v>364</v>
+        <v>182875</v>
       </c>
       <c r="E14" s="11">
-        <v>2983</v>
+        <v>1410625</v>
       </c>
       <c r="F14" s="13">
-        <v>3560</v>
+        <v>1698374</v>
       </c>
       <c r="G14" s="15">
-        <v>-576</v>
+        <v>-287749</v>
       </c>
       <c r="H14" s="17">
-        <v>2015</v>
+        <v>957173</v>
       </c>
       <c r="I14" s="19">
-        <v>1732</v>
+        <v>819932</v>
       </c>
       <c r="J14" s="21">
-        <v>283</v>
+        <v>137241</v>
       </c>
       <c r="K14" s="23">
-        <v>413</v>
+        <v>194526</v>
       </c>
       <c r="L14" s="25">
-        <v>496</v>
+        <v>233227</v>
       </c>
       <c r="M14" s="27">
-        <v>-83</v>
+        <v>-38701</v>
       </c>
       <c r="N14" s="29">
-        <v>85</v>
+        <v>40564</v>
       </c>
       <c r="O14" s="31">
-        <v>51</v>
+        <v>24048</v>
       </c>
       <c r="P14" s="33">
-        <v>34</v>
+        <v>16516</v>
       </c>
       <c r="Q14" s="35">
-        <v>183</v>
+        <v>87952</v>
       </c>
       <c r="R14" s="37">
-        <v>300</v>
+        <v>144346</v>
       </c>
       <c r="S14" s="39">
-        <v>-117</v>
+        <v>-56394</v>
       </c>
       <c r="T14" s="41">
-        <v>11</v>
+        <v>5037</v>
       </c>
       <c r="U14" s="43">
-        <v>5</v>
+        <v>2671</v>
       </c>
       <c r="V14" s="45">
-        <v>5</v>
+        <v>2366</v>
       </c>
       <c r="W14" s="47">
-        <v>4</v>
+        <v>1968</v>
       </c>
       <c r="X14" s="49">
-        <v>19</v>
+        <v>9158</v>
       </c>
       <c r="Y14" s="51">
-        <v>-14</v>
+        <v>-7190</v>
       </c>
       <c r="Z14" s="53">
-        <v>1133</v>
+        <v>536968</v>
       </c>
       <c r="AA14" s="55">
-        <v>518</v>
+        <v>244173</v>
       </c>
       <c r="AB14" s="57">
-        <v>615</v>
+        <v>292795</v>
       </c>
       <c r="AC14" s="59">
-        <v>187</v>
+        <v>90160</v>
       </c>
       <c r="AD14" s="61">
-        <v>343</v>
+        <v>162309</v>
       </c>
       <c r="AE14" s="63">
-        <v>-157</v>
+        <v>-72150</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2878,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>47</v>
+        <v>22787</v>
       </c>
       <c r="AJ14" s="73">
-        <v>118</v>
+        <v>55154</v>
       </c>
       <c r="AK14" s="75">
-        <v>-71</v>
+        <v>-32367</v>
       </c>
       <c r="AL14" s="77">
-        <v>8151</v>
+        <v>3886643</v>
       </c>
     </row>
     <row r="15">
@@ -2895,94 +2895,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>3066</v>
+        <v>1381429</v>
       </c>
       <c r="C15" s="7">
-        <v>1781</v>
+        <v>802661</v>
       </c>
       <c r="D15" s="9">
-        <v>1285</v>
+        <v>578768</v>
       </c>
       <c r="E15" s="11">
-        <v>2875</v>
+        <v>1296518</v>
       </c>
       <c r="F15" s="13">
-        <v>3839</v>
+        <v>1732376</v>
       </c>
       <c r="G15" s="15">
-        <v>-963</v>
+        <v>-435858</v>
       </c>
       <c r="H15" s="17">
-        <v>2185</v>
+        <v>982886</v>
       </c>
       <c r="I15" s="19">
-        <v>2456</v>
+        <v>1102944</v>
       </c>
       <c r="J15" s="21">
-        <v>-271</v>
+        <v>-120059</v>
       </c>
       <c r="K15" s="23">
-        <v>260</v>
+        <v>117595</v>
       </c>
       <c r="L15" s="25">
-        <v>518</v>
+        <v>234432</v>
       </c>
       <c r="M15" s="27">
-        <v>-257</v>
+        <v>-116836</v>
       </c>
       <c r="N15" s="29">
-        <v>142</v>
+        <v>63518</v>
       </c>
       <c r="O15" s="31">
-        <v>56</v>
+        <v>25481</v>
       </c>
       <c r="P15" s="33">
-        <v>86</v>
+        <v>38037</v>
       </c>
       <c r="Q15" s="35">
-        <v>223</v>
+        <v>100260</v>
       </c>
       <c r="R15" s="37">
-        <v>419</v>
+        <v>187024</v>
       </c>
       <c r="S15" s="39">
-        <v>-196</v>
+        <v>-86764</v>
       </c>
       <c r="T15" s="41">
-        <v>8</v>
+        <v>3539</v>
       </c>
       <c r="U15" s="43">
-        <v>8</v>
+        <v>3837</v>
       </c>
       <c r="V15" s="45">
-        <v>-1</v>
+        <v>-298</v>
       </c>
       <c r="W15" s="47">
-        <v>8</v>
+        <v>3747</v>
       </c>
       <c r="X15" s="49">
-        <v>19</v>
+        <v>8763</v>
       </c>
       <c r="Y15" s="51">
-        <v>-11</v>
+        <v>-5016</v>
       </c>
       <c r="Z15" s="53">
-        <v>1360</v>
+        <v>610388</v>
       </c>
       <c r="AA15" s="55">
-        <v>553</v>
+        <v>249410</v>
       </c>
       <c r="AB15" s="57">
-        <v>807</v>
+        <v>360979</v>
       </c>
       <c r="AC15" s="59">
-        <v>184</v>
+        <v>83837</v>
       </c>
       <c r="AD15" s="61">
-        <v>883</v>
+        <v>393997</v>
       </c>
       <c r="AE15" s="63">
-        <v>-699</v>
+        <v>-310159</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>48</v>
+        <v>21611</v>
       </c>
       <c r="AJ15" s="73">
-        <v>98</v>
+        <v>44462</v>
       </c>
       <c r="AK15" s="75">
-        <v>-50</v>
+        <v>-22851</v>
       </c>
       <c r="AL15" s="77">
-        <v>8174</v>
+        <v>3682443</v>
       </c>
     </row>
     <row r="16">
@@ -3011,94 +3011,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>3507</v>
+        <v>1380501</v>
       </c>
       <c r="C16" s="7">
-        <v>2354</v>
+        <v>914431</v>
       </c>
       <c r="D16" s="9">
-        <v>1153</v>
+        <v>466070</v>
       </c>
       <c r="E16" s="11">
-        <v>3170</v>
+        <v>1226754</v>
       </c>
       <c r="F16" s="13">
-        <v>3981</v>
+        <v>1562313</v>
       </c>
       <c r="G16" s="15">
-        <v>-811</v>
+        <v>-335559</v>
       </c>
       <c r="H16" s="17">
-        <v>3781</v>
+        <v>1484373</v>
       </c>
       <c r="I16" s="19">
-        <v>4028</v>
+        <v>1577518</v>
       </c>
       <c r="J16" s="21">
-        <v>-247</v>
+        <v>-93145</v>
       </c>
       <c r="K16" s="23">
-        <v>698</v>
+        <v>274148</v>
       </c>
       <c r="L16" s="25">
-        <v>777</v>
+        <v>302979</v>
       </c>
       <c r="M16" s="27">
-        <v>-79</v>
+        <v>-28831</v>
       </c>
       <c r="N16" s="29">
-        <v>237</v>
+        <v>93573</v>
       </c>
       <c r="O16" s="31">
-        <v>160</v>
+        <v>61341</v>
       </c>
       <c r="P16" s="33">
-        <v>77</v>
+        <v>32232</v>
       </c>
       <c r="Q16" s="35">
-        <v>396</v>
+        <v>156087</v>
       </c>
       <c r="R16" s="37">
-        <v>689</v>
+        <v>270891</v>
       </c>
       <c r="S16" s="39">
-        <v>-293</v>
+        <v>-114804</v>
       </c>
       <c r="T16" s="41">
-        <v>10</v>
+        <v>3997</v>
       </c>
       <c r="U16" s="43">
-        <v>20</v>
+        <v>7754</v>
       </c>
       <c r="V16" s="45">
-        <v>-10</v>
+        <v>-3758</v>
       </c>
       <c r="W16" s="47">
-        <v>9</v>
+        <v>3695</v>
       </c>
       <c r="X16" s="49">
-        <v>74</v>
+        <v>28935</v>
       </c>
       <c r="Y16" s="51">
-        <v>-64</v>
+        <v>-25240</v>
       </c>
       <c r="Z16" s="53">
-        <v>1948</v>
+        <v>763662</v>
       </c>
       <c r="AA16" s="55">
-        <v>999</v>
+        <v>391093</v>
       </c>
       <c r="AB16" s="57">
-        <v>949</v>
+        <v>372569</v>
       </c>
       <c r="AC16" s="59">
-        <v>484</v>
+        <v>189212</v>
       </c>
       <c r="AD16" s="61">
-        <v>1309</v>
+        <v>514526</v>
       </c>
       <c r="AE16" s="63">
-        <v>-825</v>
+        <v>-325314</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>62</v>
+        <v>24010</v>
       </c>
       <c r="AJ16" s="73">
-        <v>157</v>
+        <v>61376</v>
       </c>
       <c r="AK16" s="75">
-        <v>-95</v>
+        <v>-37366</v>
       </c>
       <c r="AL16" s="77">
-        <v>10521</v>
+        <v>4115638</v>
       </c>
     </row>
     <row r="17">
@@ -3127,94 +3127,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2607</v>
+        <v>1095464</v>
       </c>
       <c r="C17" s="7">
-        <v>2776</v>
+        <v>1156758</v>
       </c>
       <c r="D17" s="9">
-        <v>-169</v>
+        <v>-61294</v>
       </c>
       <c r="E17" s="11">
-        <v>2317</v>
+        <v>949214</v>
       </c>
       <c r="F17" s="13">
-        <v>2128</v>
+        <v>883620</v>
       </c>
       <c r="G17" s="15">
-        <v>189</v>
+        <v>65594</v>
       </c>
       <c r="H17" s="17">
-        <v>1130</v>
+        <v>470511</v>
       </c>
       <c r="I17" s="19">
-        <v>1162</v>
+        <v>479504</v>
       </c>
       <c r="J17" s="21">
-        <v>-32</v>
+        <v>-8992</v>
       </c>
       <c r="K17" s="23">
-        <v>271</v>
+        <v>111593</v>
       </c>
       <c r="L17" s="25">
-        <v>293</v>
+        <v>121296</v>
       </c>
       <c r="M17" s="27">
-        <v>-21</v>
+        <v>-9703</v>
       </c>
       <c r="N17" s="29">
-        <v>41</v>
+        <v>17260</v>
       </c>
       <c r="O17" s="31">
-        <v>73</v>
+        <v>29813</v>
       </c>
       <c r="P17" s="33">
-        <v>-32</v>
+        <v>-12552</v>
       </c>
       <c r="Q17" s="35">
-        <v>167</v>
+        <v>70508</v>
       </c>
       <c r="R17" s="37">
-        <v>166</v>
+        <v>68320</v>
       </c>
       <c r="S17" s="39">
-        <v>2</v>
+        <v>2188</v>
       </c>
       <c r="T17" s="41">
-        <v>3</v>
+        <v>1177</v>
       </c>
       <c r="U17" s="43">
-        <v>2</v>
+        <v>902</v>
       </c>
       <c r="V17" s="45">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="W17" s="47">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="X17" s="49">
-        <v>9</v>
+        <v>3731</v>
       </c>
       <c r="Y17" s="51">
-        <v>-9</v>
+        <v>-3669</v>
       </c>
       <c r="Z17" s="53">
-        <v>594</v>
+        <v>248014</v>
       </c>
       <c r="AA17" s="55">
-        <v>338</v>
+        <v>138491</v>
       </c>
       <c r="AB17" s="57">
-        <v>256</v>
+        <v>109523</v>
       </c>
       <c r="AC17" s="59">
-        <v>53</v>
+        <v>21896</v>
       </c>
       <c r="AD17" s="61">
-        <v>282</v>
+        <v>116951</v>
       </c>
       <c r="AE17" s="63">
-        <v>-229</v>
+        <v>-95055</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>40</v>
+        <v>16121</v>
       </c>
       <c r="AJ17" s="73">
-        <v>28</v>
+        <v>11429</v>
       </c>
       <c r="AK17" s="75">
-        <v>12</v>
+        <v>4692</v>
       </c>
       <c r="AL17" s="77">
-        <v>6094</v>
+        <v>2531311</v>
       </c>
     </row>
     <row r="18">
@@ -3243,94 +3243,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>2441</v>
+        <v>1028081</v>
       </c>
       <c r="C18" s="7">
-        <v>1786</v>
+        <v>740337</v>
       </c>
       <c r="D18" s="9">
-        <v>654</v>
+        <v>287744</v>
       </c>
       <c r="E18" s="11">
-        <v>2405</v>
+        <v>989994</v>
       </c>
       <c r="F18" s="13">
-        <v>3199</v>
+        <v>1338255</v>
       </c>
       <c r="G18" s="15">
-        <v>-793</v>
+        <v>-348261</v>
       </c>
       <c r="H18" s="17">
-        <v>1737</v>
+        <v>718391</v>
       </c>
       <c r="I18" s="19">
-        <v>1593</v>
+        <v>655078</v>
       </c>
       <c r="J18" s="21">
-        <v>144</v>
+        <v>63313</v>
       </c>
       <c r="K18" s="23">
-        <v>272</v>
+        <v>112841</v>
       </c>
       <c r="L18" s="25">
-        <v>315</v>
+        <v>130725</v>
       </c>
       <c r="M18" s="27">
-        <v>-43</v>
+        <v>-17883</v>
       </c>
       <c r="N18" s="29">
-        <v>35</v>
+        <v>14783</v>
       </c>
       <c r="O18" s="31">
-        <v>67</v>
+        <v>27956</v>
       </c>
       <c r="P18" s="33">
-        <v>-32</v>
+        <v>-13173</v>
       </c>
       <c r="Q18" s="35">
-        <v>105</v>
+        <v>43741</v>
       </c>
       <c r="R18" s="37">
-        <v>238</v>
+        <v>97545</v>
       </c>
       <c r="S18" s="39">
-        <v>-134</v>
+        <v>-53804</v>
       </c>
       <c r="T18" s="41">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="U18" s="43">
-        <v>44</v>
+        <v>19269</v>
       </c>
       <c r="V18" s="45">
-        <v>-44</v>
+        <v>-19154</v>
       </c>
       <c r="W18" s="47">
-        <v>1</v>
+        <v>566</v>
       </c>
       <c r="X18" s="49">
-        <v>22</v>
+        <v>8913</v>
       </c>
       <c r="Y18" s="51">
-        <v>-20</v>
+        <v>-8347</v>
       </c>
       <c r="Z18" s="53">
-        <v>1170</v>
+        <v>482039</v>
       </c>
       <c r="AA18" s="55">
-        <v>259</v>
+        <v>107163</v>
       </c>
       <c r="AB18" s="57">
-        <v>911</v>
+        <v>374876</v>
       </c>
       <c r="AC18" s="59">
-        <v>154</v>
+        <v>64305</v>
       </c>
       <c r="AD18" s="61">
-        <v>648</v>
+        <v>263507</v>
       </c>
       <c r="AE18" s="63">
-        <v>-494</v>
+        <v>-199202</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>66</v>
+        <v>26602</v>
       </c>
       <c r="AJ18" s="73">
-        <v>71</v>
+        <v>29398</v>
       </c>
       <c r="AK18" s="75">
-        <v>-5</v>
+        <v>-2796</v>
       </c>
       <c r="AL18" s="77">
-        <v>6649</v>
+        <v>2763068</v>
       </c>
     </row>
     <row r="19">
@@ -3359,94 +3359,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1722</v>
+        <v>735722</v>
       </c>
       <c r="C19" s="7">
-        <v>1808</v>
+        <v>772843</v>
       </c>
       <c r="D19" s="9">
-        <v>-86</v>
+        <v>-37121</v>
       </c>
       <c r="E19" s="11">
-        <v>3590</v>
+        <v>1534260</v>
       </c>
       <c r="F19" s="13">
-        <v>4038</v>
+        <v>1741824</v>
       </c>
       <c r="G19" s="15">
-        <v>-448</v>
+        <v>-207564</v>
       </c>
       <c r="H19" s="17">
-        <v>2662</v>
+        <v>1139330</v>
       </c>
       <c r="I19" s="19">
-        <v>2046</v>
+        <v>860551</v>
       </c>
       <c r="J19" s="21">
-        <v>616</v>
+        <v>278779</v>
       </c>
       <c r="K19" s="23">
-        <v>232</v>
+        <v>98696</v>
       </c>
       <c r="L19" s="25">
-        <v>442</v>
+        <v>187512</v>
       </c>
       <c r="M19" s="27">
-        <v>-210</v>
+        <v>-88815</v>
       </c>
       <c r="N19" s="29">
-        <v>119</v>
+        <v>50676</v>
       </c>
       <c r="O19" s="31">
-        <v>95</v>
+        <v>40390</v>
       </c>
       <c r="P19" s="33">
-        <v>23</v>
+        <v>10286</v>
       </c>
       <c r="Q19" s="35">
-        <v>239</v>
+        <v>103260</v>
       </c>
       <c r="R19" s="37">
-        <v>511</v>
+        <v>212536</v>
       </c>
       <c r="S19" s="39">
-        <v>-272</v>
+        <v>-109276</v>
       </c>
       <c r="T19" s="41">
-        <v>5</v>
+        <v>1883</v>
       </c>
       <c r="U19" s="43">
-        <v>40</v>
+        <v>17519</v>
       </c>
       <c r="V19" s="45">
-        <v>-35</v>
+        <v>-15636</v>
       </c>
       <c r="W19" s="47">
-        <v>4</v>
+        <v>1704</v>
       </c>
       <c r="X19" s="49">
-        <v>44</v>
+        <v>18081</v>
       </c>
       <c r="Y19" s="51">
-        <v>-40</v>
+        <v>-16378</v>
       </c>
       <c r="Z19" s="53">
-        <v>1762</v>
+        <v>756742</v>
       </c>
       <c r="AA19" s="55">
-        <v>277</v>
+        <v>118672</v>
       </c>
       <c r="AB19" s="57">
-        <v>1485</v>
+        <v>638071</v>
       </c>
       <c r="AC19" s="59">
-        <v>302</v>
+        <v>126368</v>
       </c>
       <c r="AD19" s="61">
-        <v>638</v>
+        <v>265841</v>
       </c>
       <c r="AE19" s="63">
-        <v>-336</v>
+        <v>-139473</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3458,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>37</v>
+        <v>15916</v>
       </c>
       <c r="AJ19" s="73">
-        <v>119</v>
+        <v>50010</v>
       </c>
       <c r="AK19" s="75">
-        <v>-81</v>
+        <v>-34094</v>
       </c>
       <c r="AL19" s="77">
-        <v>8012</v>
+        <v>3425228</v>
       </c>
     </row>
     <row r="20">
@@ -3475,94 +3475,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2738</v>
+        <v>1114690</v>
       </c>
       <c r="C20" s="7">
-        <v>4449</v>
+        <v>1743648</v>
       </c>
       <c r="D20" s="9">
-        <v>-1711</v>
+        <v>-628958</v>
       </c>
       <c r="E20" s="11">
-        <v>9540</v>
+        <v>3790355</v>
       </c>
       <c r="F20" s="13">
-        <v>9175</v>
+        <v>3710441</v>
       </c>
       <c r="G20" s="15">
-        <v>365</v>
+        <v>79914</v>
       </c>
       <c r="H20" s="17">
-        <v>3072</v>
+        <v>1252071</v>
       </c>
       <c r="I20" s="19">
-        <v>1707</v>
+        <v>693578</v>
       </c>
       <c r="J20" s="21">
-        <v>1365</v>
+        <v>558493</v>
       </c>
       <c r="K20" s="23">
-        <v>251</v>
+        <v>101784</v>
       </c>
       <c r="L20" s="25">
-        <v>391</v>
+        <v>160574</v>
       </c>
       <c r="M20" s="27">
-        <v>-140</v>
+        <v>-58790</v>
       </c>
       <c r="N20" s="29">
-        <v>263</v>
+        <v>107958</v>
       </c>
       <c r="O20" s="31">
-        <v>164</v>
+        <v>66475</v>
       </c>
       <c r="P20" s="33">
-        <v>99</v>
+        <v>41483</v>
       </c>
       <c r="Q20" s="35">
-        <v>789</v>
+        <v>329336</v>
       </c>
       <c r="R20" s="37">
-        <v>264</v>
+        <v>103123</v>
       </c>
       <c r="S20" s="39">
-        <v>525</v>
+        <v>226213</v>
       </c>
       <c r="T20" s="41">
-        <v>10</v>
+        <v>3984</v>
       </c>
       <c r="U20" s="43">
-        <v>7</v>
+        <v>2759</v>
       </c>
       <c r="V20" s="45">
-        <v>3</v>
+        <v>1226</v>
       </c>
       <c r="W20" s="47">
-        <v>9</v>
+        <v>3448</v>
       </c>
       <c r="X20" s="49">
-        <v>8</v>
+        <v>3354</v>
       </c>
       <c r="Y20" s="51">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="Z20" s="53">
-        <v>1587</v>
+        <v>636587</v>
       </c>
       <c r="AA20" s="55">
-        <v>640</v>
+        <v>261362</v>
       </c>
       <c r="AB20" s="57">
-        <v>948</v>
+        <v>375226</v>
       </c>
       <c r="AC20" s="59">
-        <v>163</v>
+        <v>68973</v>
       </c>
       <c r="AD20" s="61">
-        <v>234</v>
+        <v>95932</v>
       </c>
       <c r="AE20" s="63">
-        <v>-71</v>
+        <v>-26959</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3574,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>130</v>
+        <v>52198</v>
       </c>
       <c r="AJ20" s="73">
-        <v>149</v>
+        <v>61646</v>
       </c>
       <c r="AK20" s="75">
-        <v>-19</v>
+        <v>-9449</v>
       </c>
       <c r="AL20" s="77">
-        <v>15480</v>
+        <v>6209313</v>
       </c>
     </row>
     <row r="21">
@@ -3591,94 +3591,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>4518</v>
+        <v>2157356</v>
       </c>
       <c r="C21" s="7">
-        <v>5524</v>
+        <v>2587000</v>
       </c>
       <c r="D21" s="9">
-        <v>-1006</v>
+        <v>-429644</v>
       </c>
       <c r="E21" s="11">
-        <v>17087</v>
+        <v>8290809</v>
       </c>
       <c r="F21" s="13">
-        <v>16803</v>
+        <v>8234988</v>
       </c>
       <c r="G21" s="15">
-        <v>284</v>
+        <v>55821</v>
       </c>
       <c r="H21" s="17">
-        <v>3255</v>
+        <v>1580878</v>
       </c>
       <c r="I21" s="19">
-        <v>2529</v>
+        <v>1202891</v>
       </c>
       <c r="J21" s="21">
-        <v>726</v>
+        <v>377987</v>
       </c>
       <c r="K21" s="23">
-        <v>385</v>
+        <v>195707</v>
       </c>
       <c r="L21" s="25">
-        <v>616</v>
+        <v>294786</v>
       </c>
       <c r="M21" s="27">
-        <v>-231</v>
+        <v>-99079</v>
       </c>
       <c r="N21" s="29">
-        <v>166</v>
+        <v>79913</v>
       </c>
       <c r="O21" s="31">
-        <v>148</v>
+        <v>71483</v>
       </c>
       <c r="P21" s="33">
-        <v>18</v>
+        <v>8429</v>
       </c>
       <c r="Q21" s="35">
-        <v>925</v>
+        <v>449612</v>
       </c>
       <c r="R21" s="37">
-        <v>429</v>
+        <v>206413</v>
       </c>
       <c r="S21" s="39">
-        <v>495</v>
+        <v>243199</v>
       </c>
       <c r="T21" s="41">
-        <v>14</v>
+        <v>7171</v>
       </c>
       <c r="U21" s="43">
-        <v>21</v>
+        <v>8670</v>
       </c>
       <c r="V21" s="45">
-        <v>-6</v>
+        <v>-1499</v>
       </c>
       <c r="W21" s="47">
-        <v>5</v>
+        <v>2269</v>
       </c>
       <c r="X21" s="49">
-        <v>26</v>
+        <v>13032</v>
       </c>
       <c r="Y21" s="51">
-        <v>-21</v>
+        <v>-10763</v>
       </c>
       <c r="Z21" s="53">
-        <v>1441</v>
+        <v>684107</v>
       </c>
       <c r="AA21" s="55">
-        <v>623</v>
+        <v>293858</v>
       </c>
       <c r="AB21" s="57">
-        <v>818</v>
+        <v>390249</v>
       </c>
       <c r="AC21" s="59">
-        <v>320</v>
+        <v>162099</v>
       </c>
       <c r="AD21" s="61">
-        <v>666</v>
+        <v>314649</v>
       </c>
       <c r="AE21" s="63">
-        <v>-346</v>
+        <v>-152550</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>217</v>
+        <v>105705</v>
       </c>
       <c r="AJ21" s="73">
-        <v>221</v>
+        <v>109869</v>
       </c>
       <c r="AK21" s="75">
-        <v>-4</v>
+        <v>-4164</v>
       </c>
       <c r="AL21" s="77">
-        <v>25078</v>
+        <v>12134749</v>
       </c>
     </row>
     <row r="22">
@@ -3707,94 +3707,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="6">
-        <v>1973</v>
+        <v>983375</v>
       </c>
       <c r="C22" s="8">
-        <v>5682</v>
+        <v>2870017</v>
       </c>
       <c r="D22" s="10">
-        <v>-3709</v>
+        <v>-1886641</v>
       </c>
       <c r="E22" s="12">
-        <v>11588</v>
+        <v>5690017</v>
       </c>
       <c r="F22" s="14">
-        <v>13829</v>
+        <v>6891443</v>
       </c>
       <c r="G22" s="16">
-        <v>-2242</v>
+        <v>-1201426</v>
       </c>
       <c r="H22" s="18">
-        <v>6767</v>
+        <v>3497227</v>
       </c>
       <c r="I22" s="20">
-        <v>677</v>
+        <v>334863</v>
       </c>
       <c r="J22" s="22">
-        <v>6090</v>
+        <v>3162364</v>
       </c>
       <c r="K22" s="24">
-        <v>429</v>
+        <v>212726</v>
       </c>
       <c r="L22" s="26">
-        <v>317</v>
+        <v>155115</v>
       </c>
       <c r="M22" s="28">
-        <v>112</v>
+        <v>57612</v>
       </c>
       <c r="N22" s="30">
-        <v>610</v>
+        <v>313572</v>
       </c>
       <c r="O22" s="32">
-        <v>29</v>
+        <v>14376</v>
       </c>
       <c r="P22" s="34">
-        <v>581</v>
+        <v>299195</v>
       </c>
       <c r="Q22" s="36">
-        <v>790</v>
+        <v>408032</v>
       </c>
       <c r="R22" s="38">
-        <v>108</v>
+        <v>53657</v>
       </c>
       <c r="S22" s="40">
-        <v>682</v>
+        <v>354375</v>
       </c>
       <c r="T22" s="42">
-        <v>7</v>
+        <v>3640</v>
       </c>
       <c r="U22" s="44">
-        <v>15</v>
+        <v>7365</v>
       </c>
       <c r="V22" s="46">
-        <v>-8</v>
+        <v>-3725</v>
       </c>
       <c r="W22" s="48">
-        <v>14</v>
+        <v>7443</v>
       </c>
       <c r="X22" s="50">
-        <v>34</v>
+        <v>17671</v>
       </c>
       <c r="Y22" s="52">
-        <v>-20</v>
+        <v>-10227</v>
       </c>
       <c r="Z22" s="54">
-        <v>4342</v>
+        <v>2264939</v>
       </c>
       <c r="AA22" s="56">
-        <v>27</v>
+        <v>12533</v>
       </c>
       <c r="AB22" s="58">
-        <v>4315</v>
+        <v>2252406</v>
       </c>
       <c r="AC22" s="60">
-        <v>575</v>
+        <v>286876</v>
       </c>
       <c r="AD22" s="62">
-        <v>147</v>
+        <v>74147</v>
       </c>
       <c r="AE22" s="64">
-        <v>428</v>
+        <v>212729</v>
       </c>
       <c r="AF22" s="66">
         <v>0</v>
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="72">
-        <v>179</v>
+        <v>89699</v>
       </c>
       <c r="AJ22" s="74">
-        <v>318</v>
+        <v>163995</v>
       </c>
       <c r="AK22" s="76">
-        <v>-139</v>
+        <v>-74297</v>
       </c>
       <c r="AL22" s="78">
-        <v>20507</v>
+        <v>10260318</v>
       </c>
     </row>
   </sheetData>
